--- a/src/NRL_stats.xlsx
+++ b/src/NRL_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rossritchie/code/fantasy_trade_calculator/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C646BC78-FE5E-B64D-AE15-F2E69E485F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0C227E-E761-B34E-B8D0-7629B4F67EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32300" yWindow="3520" windowWidth="31400" windowHeight="17420" xr2:uid="{B4242749-2F31-BC4D-9D1D-C0882BBF0A2E}"/>
+    <workbookView xWindow="35080" yWindow="2580" windowWidth="31400" windowHeight="17420" xr2:uid="{B4242749-2F31-BC4D-9D1D-C0882BBF0A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="394">
   <si>
     <t>Player</t>
   </si>
@@ -1214,10 +1214,10 @@
     <t>POS2</t>
   </si>
   <si>
-    <t>POS1</t>
+    <t/>
   </si>
   <si>
-    <t/>
+    <t>POS1</t>
   </si>
 </sst>
 </file>
@@ -2116,10 +2116,10 @@
   <dimension ref="A1:AO832"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F817" sqref="F817"/>
+      <selection pane="bottomRight" activeCell="H823" sqref="H823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2145,7 +2145,7 @@
         <v>371</v>
       </c>
       <c r="F1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G1" t="s">
         <v>391</v>
@@ -2261,7 +2261,7 @@
         <v>341</v>
       </c>
       <c r="G2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2" s="2">
         <v>841000</v>
@@ -2344,7 +2344,7 @@
         <v>342</v>
       </c>
       <c r="G3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H3" s="2">
         <v>593000</v>
@@ -2486,7 +2486,7 @@
         <v>344</v>
       </c>
       <c r="G5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H5" s="2">
         <v>745000</v>
@@ -2554,7 +2554,7 @@
         <v>345</v>
       </c>
       <c r="G6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H6" s="2">
         <v>778000</v>
@@ -2626,7 +2626,7 @@
         <v>341</v>
       </c>
       <c r="G7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H7" s="2">
         <v>334000</v>
@@ -2694,7 +2694,7 @@
         <v>341</v>
       </c>
       <c r="G8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H8" s="2">
         <v>788000</v>
@@ -2771,7 +2771,7 @@
         <v>346</v>
       </c>
       <c r="G9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H9" s="2">
         <v>703000</v>
@@ -2957,7 +2957,7 @@
         <v>344</v>
       </c>
       <c r="G12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H12" s="2">
         <v>553000</v>
@@ -3010,7 +3010,7 @@
         <v>341</v>
       </c>
       <c r="G13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H13" s="2">
         <v>413000</v>
@@ -3081,7 +3081,7 @@
         <v>346</v>
       </c>
       <c r="G14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H14" s="2">
         <v>608000</v>
@@ -3149,7 +3149,7 @@
         <v>341</v>
       </c>
       <c r="G15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H15" s="2">
         <v>377000</v>
@@ -3217,7 +3217,7 @@
         <v>345</v>
       </c>
       <c r="G16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H16" s="2">
         <v>442000</v>
@@ -3332,7 +3332,7 @@
         <v>344</v>
       </c>
       <c r="G18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H18" s="2">
         <v>502000</v>
@@ -3385,7 +3385,7 @@
         <v>344</v>
       </c>
       <c r="G19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H19" s="2">
         <v>353000</v>
@@ -3432,7 +3432,7 @@
         <v>346</v>
       </c>
       <c r="G20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H20" s="2">
         <v>489000</v>
@@ -3491,7 +3491,7 @@
         <v>344</v>
       </c>
       <c r="G21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H21" s="2">
         <v>454000</v>
@@ -3547,7 +3547,7 @@
         <v>344</v>
       </c>
       <c r="G22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H22" s="2">
         <v>326000</v>
@@ -3594,7 +3594,7 @@
         <v>341</v>
       </c>
       <c r="G23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H23" s="2">
         <v>312000</v>
@@ -3656,7 +3656,7 @@
         <v>346</v>
       </c>
       <c r="G24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H24" s="2">
         <v>481000</v>
@@ -3715,7 +3715,7 @@
         <v>344</v>
       </c>
       <c r="G25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H25" s="2">
         <v>489000</v>
@@ -3818,7 +3818,7 @@
         <v>344</v>
       </c>
       <c r="G27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H27" s="2">
         <v>413000</v>
@@ -3871,7 +3871,7 @@
         <v>344</v>
       </c>
       <c r="G28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H28" s="2">
         <v>284000</v>
@@ -3989,7 +3989,7 @@
         <v>343</v>
       </c>
       <c r="G30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H30" s="2">
         <v>350000</v>
@@ -4145,7 +4145,7 @@
         <v>341</v>
       </c>
       <c r="G33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H33" s="2">
         <v>300000</v>
@@ -4257,7 +4257,7 @@
         <v>342</v>
       </c>
       <c r="G35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H35" s="2">
         <v>333000</v>
@@ -4310,7 +4310,7 @@
         <v>344</v>
       </c>
       <c r="G36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H36" s="2">
         <v>777000</v>
@@ -4372,7 +4372,7 @@
         <v>343</v>
       </c>
       <c r="G37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H37" s="2">
         <v>529000</v>
@@ -4446,7 +4446,7 @@
         <v>342</v>
       </c>
       <c r="G38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H38" s="2">
         <v>472000</v>
@@ -4502,7 +4502,7 @@
         <v>344</v>
       </c>
       <c r="G39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H39" s="2">
         <v>611000</v>
@@ -4555,7 +4555,7 @@
         <v>346</v>
       </c>
       <c r="G40" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H40" s="2">
         <v>635000</v>
@@ -4682,7 +4682,7 @@
         <v>341</v>
       </c>
       <c r="G42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H42" s="2">
         <v>693000</v>
@@ -4753,7 +4753,7 @@
         <v>341</v>
       </c>
       <c r="G43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H43" s="2">
         <v>766000</v>
@@ -4815,7 +4815,7 @@
         <v>344</v>
       </c>
       <c r="G44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H44" s="2">
         <v>729000</v>
@@ -4927,7 +4927,7 @@
         <v>342</v>
       </c>
       <c r="G46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H46" s="2">
         <v>332000</v>
@@ -4986,7 +4986,7 @@
         <v>346</v>
       </c>
       <c r="G47" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H47" s="2">
         <v>482000</v>
@@ -5045,7 +5045,7 @@
         <v>344</v>
       </c>
       <c r="G48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H48" s="2">
         <v>774000</v>
@@ -5101,7 +5101,7 @@
         <v>346</v>
       </c>
       <c r="G49" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H49" s="2">
         <v>595000</v>
@@ -5166,7 +5166,7 @@
         <v>344</v>
       </c>
       <c r="G50" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H50" s="2">
         <v>494000</v>
@@ -5231,7 +5231,7 @@
         <v>343</v>
       </c>
       <c r="G51" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H51" s="2">
         <v>564000</v>
@@ -5367,7 +5367,7 @@
         <v>341</v>
       </c>
       <c r="G53" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H53" s="2">
         <v>595000</v>
@@ -5484,9 +5484,6 @@
       <c r="F55" t="s">
         <v>341</v>
       </c>
-      <c r="G55" t="s">
-        <v>341</v>
-      </c>
       <c r="H55" s="2">
         <v>503000</v>
       </c>
@@ -5736,7 +5733,7 @@
         <v>344</v>
       </c>
       <c r="G59" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H59" s="2">
         <v>393000</v>
@@ -5786,7 +5783,7 @@
         <v>344</v>
       </c>
       <c r="G60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H60" s="2">
         <v>438000</v>
@@ -5839,7 +5836,7 @@
         <v>345</v>
       </c>
       <c r="G61" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H61" s="2">
         <v>521000</v>
@@ -5889,7 +5886,7 @@
         <v>343</v>
       </c>
       <c r="G62" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H62" s="2">
         <v>464000</v>
@@ -6001,7 +5998,7 @@
         <v>344</v>
       </c>
       <c r="G64" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H64" s="2">
         <v>384000</v>
@@ -6057,7 +6054,7 @@
         <v>346</v>
       </c>
       <c r="G65" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H65" s="2">
         <v>230000</v>
@@ -6107,7 +6104,7 @@
         <v>344</v>
       </c>
       <c r="G66" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H66" s="2">
         <v>395000</v>
@@ -6207,7 +6204,7 @@
         <v>346</v>
       </c>
       <c r="G68" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H68" s="2">
         <v>437000</v>
@@ -6266,7 +6263,7 @@
         <v>342</v>
       </c>
       <c r="G69" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H69" s="2">
         <v>422000</v>
@@ -6316,7 +6313,7 @@
         <v>342</v>
       </c>
       <c r="G70" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H70" s="2">
         <v>534000</v>
@@ -6384,7 +6381,7 @@
         <v>342</v>
       </c>
       <c r="G71" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H71" s="2">
         <v>580000</v>
@@ -6446,7 +6443,7 @@
         <v>346</v>
       </c>
       <c r="G72" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H72" s="2">
         <v>645000</v>
@@ -6511,7 +6508,7 @@
         <v>344</v>
       </c>
       <c r="G73" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H73" s="2">
         <v>738000</v>
@@ -6573,7 +6570,7 @@
         <v>344</v>
       </c>
       <c r="G74" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H74" s="2">
         <v>510000</v>
@@ -6632,7 +6629,7 @@
         <v>343</v>
       </c>
       <c r="G75" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H75" s="2">
         <v>732000</v>
@@ -6691,7 +6688,7 @@
         <v>342</v>
       </c>
       <c r="G76" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H76" s="2">
         <v>632000</v>
@@ -6744,7 +6741,7 @@
         <v>344</v>
       </c>
       <c r="G77" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H77" s="2">
         <v>470000</v>
@@ -6806,7 +6803,7 @@
         <v>346</v>
       </c>
       <c r="G78" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H78" s="2">
         <v>637000</v>
@@ -6871,7 +6868,7 @@
         <v>342</v>
       </c>
       <c r="G79" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H79" s="2">
         <v>767000</v>
@@ -6942,7 +6939,7 @@
         <v>344</v>
       </c>
       <c r="G80" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H80" s="2">
         <v>622000</v>
@@ -7001,7 +6998,7 @@
         <v>341</v>
       </c>
       <c r="G81" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H81" s="2">
         <v>382000</v>
@@ -7075,7 +7072,7 @@
         <v>346</v>
       </c>
       <c r="G82" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H82" s="2">
         <v>459000</v>
@@ -7140,7 +7137,7 @@
         <v>345</v>
       </c>
       <c r="G83" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H83" s="2">
         <v>386000</v>
@@ -7202,7 +7199,7 @@
         <v>346</v>
       </c>
       <c r="G84" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H84" s="2">
         <v>418000</v>
@@ -7255,7 +7252,7 @@
         <v>344</v>
       </c>
       <c r="G85" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H85" s="2">
         <v>548000</v>
@@ -7361,7 +7358,7 @@
         <v>341</v>
       </c>
       <c r="G87" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H87" s="2">
         <v>755000</v>
@@ -7435,7 +7432,7 @@
         <v>343</v>
       </c>
       <c r="G88" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H88" s="2">
         <v>450000</v>
@@ -7490,9 +7487,6 @@
       <c r="F89" t="s">
         <v>341</v>
       </c>
-      <c r="G89" t="s">
-        <v>341</v>
-      </c>
       <c r="H89" s="2">
         <v>392000</v>
       </c>
@@ -7553,7 +7547,7 @@
         <v>342</v>
       </c>
       <c r="G90" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H90" s="2">
         <v>547000</v>
@@ -7606,7 +7600,7 @@
         <v>345</v>
       </c>
       <c r="G91" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H91" s="2">
         <v>244000</v>
@@ -7671,7 +7665,7 @@
         <v>341</v>
       </c>
       <c r="G92" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H92" s="2">
         <v>514000</v>
@@ -7730,7 +7724,7 @@
         <v>341</v>
       </c>
       <c r="G93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H93" s="2">
         <v>402000</v>
@@ -7792,7 +7786,7 @@
         <v>344</v>
       </c>
       <c r="G94" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H94" s="2">
         <v>513000</v>
@@ -7848,7 +7842,7 @@
         <v>343</v>
       </c>
       <c r="G95" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H95" s="2">
         <v>623000</v>
@@ -7966,7 +7960,7 @@
         <v>344</v>
       </c>
       <c r="G97" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H97" s="2">
         <v>386000</v>
@@ -8025,7 +8019,7 @@
         <v>343</v>
       </c>
       <c r="G98" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H98" s="2">
         <v>360000</v>
@@ -8078,7 +8072,7 @@
         <v>344</v>
       </c>
       <c r="G99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H99" s="2">
         <v>395000</v>
@@ -8128,7 +8122,7 @@
         <v>343</v>
       </c>
       <c r="G100" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H100" s="2">
         <v>485000</v>
@@ -8184,7 +8178,7 @@
         <v>345</v>
       </c>
       <c r="G101" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H101" s="2">
         <v>514000</v>
@@ -8234,7 +8228,7 @@
         <v>344</v>
       </c>
       <c r="G102" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H102" s="2">
         <v>352000</v>
@@ -8337,7 +8331,7 @@
         <v>344</v>
       </c>
       <c r="G104" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H104" s="2">
         <v>804000</v>
@@ -8396,7 +8390,7 @@
         <v>344</v>
       </c>
       <c r="G105" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H105" s="2">
         <v>616000</v>
@@ -8449,7 +8443,7 @@
         <v>346</v>
       </c>
       <c r="G106" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H106" s="2">
         <v>605000</v>
@@ -8514,7 +8508,7 @@
         <v>341</v>
       </c>
       <c r="G107" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H107" s="2">
         <v>543000</v>
@@ -8594,7 +8588,7 @@
         <v>344</v>
       </c>
       <c r="G108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H108" s="2">
         <v>561000</v>
@@ -8647,7 +8641,7 @@
         <v>342</v>
       </c>
       <c r="G109" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H109" s="2">
         <v>572000</v>
@@ -8706,7 +8700,7 @@
         <v>346</v>
       </c>
       <c r="G110" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H110" s="2">
         <v>709000</v>
@@ -8830,7 +8824,7 @@
         <v>342</v>
       </c>
       <c r="G112" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H112" s="2">
         <v>509000</v>
@@ -8889,7 +8883,7 @@
         <v>341</v>
       </c>
       <c r="G113" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H113" s="2">
         <v>445000</v>
@@ -8945,7 +8939,7 @@
         <v>345</v>
       </c>
       <c r="G114" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H114" s="2">
         <v>541000</v>
@@ -8998,7 +8992,7 @@
         <v>344</v>
       </c>
       <c r="G115" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H115" s="2">
         <v>692000</v>
@@ -9057,7 +9051,7 @@
         <v>346</v>
       </c>
       <c r="G116" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H116" s="2">
         <v>424000</v>
@@ -9122,7 +9116,7 @@
         <v>344</v>
       </c>
       <c r="G117" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H117" s="2">
         <v>500000</v>
@@ -9178,7 +9172,7 @@
         <v>343</v>
       </c>
       <c r="G118" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H118" s="2">
         <v>426000</v>
@@ -9237,7 +9231,7 @@
         <v>342</v>
       </c>
       <c r="G119" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H119" s="2">
         <v>578000</v>
@@ -9290,7 +9284,7 @@
         <v>344</v>
       </c>
       <c r="G120" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H120" s="2">
         <v>496000</v>
@@ -9349,7 +9343,7 @@
         <v>342</v>
       </c>
       <c r="G121" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H121" s="2">
         <v>763000</v>
@@ -9413,9 +9407,6 @@
       <c r="F122" t="s">
         <v>341</v>
       </c>
-      <c r="G122" t="s">
-        <v>341</v>
-      </c>
       <c r="H122" s="2">
         <v>511000</v>
       </c>
@@ -9476,7 +9467,7 @@
         <v>341</v>
       </c>
       <c r="G123" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H123" s="2">
         <v>464000</v>
@@ -9612,7 +9603,7 @@
         <v>341</v>
       </c>
       <c r="G125" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H125" s="2">
         <v>392000</v>
@@ -9677,7 +9668,7 @@
         <v>344</v>
       </c>
       <c r="G126" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H126" s="2">
         <v>533000</v>
@@ -9730,7 +9721,7 @@
         <v>344</v>
       </c>
       <c r="G127" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H127" s="2">
         <v>579000</v>
@@ -9780,7 +9771,7 @@
         <v>343</v>
       </c>
       <c r="G128" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H128" s="2">
         <v>633000</v>
@@ -9842,7 +9833,7 @@
         <v>345</v>
       </c>
       <c r="G129" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H129" s="2">
         <v>288000</v>
@@ -9895,7 +9886,7 @@
         <v>345</v>
       </c>
       <c r="G130" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H130" s="2">
         <v>568000</v>
@@ -9951,7 +9942,7 @@
         <v>341</v>
       </c>
       <c r="G131" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H131" s="2">
         <v>435000</v>
@@ -10013,7 +10004,7 @@
         <v>346</v>
       </c>
       <c r="G132" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H132" s="2">
         <v>591000</v>
@@ -10128,7 +10119,7 @@
         <v>344</v>
       </c>
       <c r="G134" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H134" s="2">
         <v>265000</v>
@@ -10184,7 +10175,7 @@
         <v>344</v>
       </c>
       <c r="G135" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H135" s="2">
         <v>439000</v>
@@ -10234,7 +10225,7 @@
         <v>344</v>
       </c>
       <c r="G136" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H136" s="2">
         <v>310000</v>
@@ -10287,7 +10278,7 @@
         <v>344</v>
       </c>
       <c r="G137" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H137" s="2">
         <v>930000</v>
@@ -10352,7 +10343,7 @@
         <v>341</v>
       </c>
       <c r="G138" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H138" s="2">
         <v>504000</v>
@@ -10414,7 +10405,7 @@
         <v>345</v>
       </c>
       <c r="G139" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H139" s="2">
         <v>311000</v>
@@ -10479,7 +10470,7 @@
         <v>342</v>
       </c>
       <c r="G140" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H140" s="2">
         <v>661000</v>
@@ -10541,7 +10532,7 @@
         <v>346</v>
       </c>
       <c r="G141" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H141" s="2">
         <v>923000</v>
@@ -10606,7 +10597,7 @@
         <v>345</v>
       </c>
       <c r="G142" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H142" s="2">
         <v>763000</v>
@@ -10665,7 +10656,7 @@
         <v>344</v>
       </c>
       <c r="G143" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H143" s="2">
         <v>432000</v>
@@ -10727,7 +10718,7 @@
         <v>344</v>
       </c>
       <c r="G144" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H144" s="2">
         <v>590000</v>
@@ -10783,7 +10774,7 @@
         <v>344</v>
       </c>
       <c r="G145" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H145" s="2">
         <v>518000</v>
@@ -10842,7 +10833,7 @@
         <v>342</v>
       </c>
       <c r="G146" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H146" s="2">
         <v>536000</v>
@@ -10904,7 +10895,7 @@
         <v>341</v>
       </c>
       <c r="G147" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H147" s="2">
         <v>672000</v>
@@ -10969,7 +10960,7 @@
         <v>346</v>
       </c>
       <c r="G148" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H148" s="2">
         <v>835000</v>
@@ -11037,7 +11028,7 @@
         <v>341</v>
       </c>
       <c r="G149" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H149" s="2">
         <v>424000</v>
@@ -11161,7 +11152,7 @@
         <v>346</v>
       </c>
       <c r="G151" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H151" s="2">
         <v>443000</v>
@@ -11226,7 +11217,7 @@
         <v>344</v>
       </c>
       <c r="G152" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H152" s="2">
         <v>646000</v>
@@ -11285,7 +11276,7 @@
         <v>346</v>
       </c>
       <c r="G153" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H153" s="2">
         <v>584000</v>
@@ -11347,7 +11338,7 @@
         <v>344</v>
       </c>
       <c r="G154" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H154" s="2">
         <v>344000</v>
@@ -11402,9 +11393,6 @@
       <c r="F155" t="s">
         <v>341</v>
       </c>
-      <c r="G155" t="s">
-        <v>341</v>
-      </c>
       <c r="H155" s="2">
         <v>564000</v>
       </c>
@@ -11462,7 +11450,7 @@
         <v>343</v>
       </c>
       <c r="G156" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H156" s="2">
         <v>460000</v>
@@ -11518,7 +11506,7 @@
         <v>341</v>
       </c>
       <c r="G157" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H157" s="2">
         <v>532000</v>
@@ -11589,7 +11577,7 @@
         <v>341</v>
       </c>
       <c r="G158" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H158" s="2">
         <v>585000</v>
@@ -11645,7 +11633,7 @@
         <v>343</v>
       </c>
       <c r="G159" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H159" s="2">
         <v>389000</v>
@@ -11757,7 +11745,7 @@
         <v>345</v>
       </c>
       <c r="G161" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H161" s="2">
         <v>405000</v>
@@ -11816,7 +11804,7 @@
         <v>344</v>
       </c>
       <c r="G162" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H162" s="2">
         <v>394000</v>
@@ -11869,7 +11857,7 @@
         <v>342</v>
       </c>
       <c r="G163" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H163" s="2">
         <v>230000</v>
@@ -11925,7 +11913,7 @@
         <v>342</v>
       </c>
       <c r="G164" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H164" s="2">
         <v>598000</v>
@@ -11981,7 +11969,7 @@
         <v>342</v>
       </c>
       <c r="G165" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H165" s="2">
         <v>363000</v>
@@ -12034,7 +12022,7 @@
         <v>341</v>
       </c>
       <c r="G166" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H166" s="2">
         <v>482000</v>
@@ -12093,7 +12081,7 @@
         <v>344</v>
       </c>
       <c r="G167" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H167" s="2">
         <v>426000</v>
@@ -12152,7 +12140,7 @@
         <v>341</v>
       </c>
       <c r="G168" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H168" s="2">
         <v>506000</v>
@@ -12217,7 +12205,7 @@
         <v>344</v>
       </c>
       <c r="G169" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H169" s="2">
         <v>373000</v>
@@ -12270,7 +12258,7 @@
         <v>346</v>
       </c>
       <c r="G170" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H170" s="2">
         <v>563000</v>
@@ -12323,7 +12311,7 @@
         <v>342</v>
       </c>
       <c r="G171" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H171" s="2">
         <v>546000</v>
@@ -12391,7 +12379,7 @@
         <v>344</v>
       </c>
       <c r="G172" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H172" s="2">
         <v>660000</v>
@@ -12447,7 +12435,7 @@
         <v>344</v>
       </c>
       <c r="G173" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H173" s="2">
         <v>464000</v>
@@ -12621,7 +12609,7 @@
         <v>342</v>
       </c>
       <c r="G176" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H176" s="2">
         <v>709000</v>
@@ -12677,7 +12665,7 @@
         <v>346</v>
       </c>
       <c r="G177" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H177" s="2">
         <v>610000</v>
@@ -12742,7 +12730,7 @@
         <v>345</v>
       </c>
       <c r="G178" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H178" s="2">
         <v>559000</v>
@@ -12804,7 +12792,7 @@
         <v>345</v>
       </c>
       <c r="G179" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H179" s="2">
         <v>248000</v>
@@ -12866,7 +12854,7 @@
         <v>344</v>
       </c>
       <c r="G180" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H180" s="2">
         <v>550000</v>
@@ -12919,7 +12907,7 @@
         <v>341</v>
       </c>
       <c r="G181" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H181" s="2">
         <v>638000</v>
@@ -13046,7 +13034,7 @@
         <v>343</v>
       </c>
       <c r="G183" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H183" s="2">
         <v>505000</v>
@@ -13111,7 +13099,7 @@
         <v>341</v>
       </c>
       <c r="G184" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H184" s="2">
         <v>355000</v>
@@ -13170,7 +13158,7 @@
         <v>344</v>
       </c>
       <c r="G185" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H185" s="2">
         <v>581000</v>
@@ -13223,7 +13211,7 @@
         <v>343</v>
       </c>
       <c r="G186" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H186" s="2">
         <v>402000</v>
@@ -13261,7 +13249,7 @@
         <v>-3.8430656934306562</v>
       </c>
     </row>
-    <row r="187" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -13338,7 +13326,7 @@
         <v>346</v>
       </c>
       <c r="G188" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H188" s="2">
         <v>443000</v>
@@ -13400,7 +13388,7 @@
         <v>341</v>
       </c>
       <c r="G189" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H189" s="2">
         <v>318000</v>
@@ -13468,7 +13456,7 @@
         <v>346</v>
       </c>
       <c r="G190" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H190" s="2">
         <v>689000</v>
@@ -13536,7 +13524,7 @@
         <v>346</v>
       </c>
       <c r="G191" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H191" s="2">
         <v>753000</v>
@@ -13601,7 +13589,7 @@
         <v>342</v>
       </c>
       <c r="G192" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H192" s="2">
         <v>559000</v>
@@ -13719,7 +13707,7 @@
         <v>343</v>
       </c>
       <c r="G194" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H194" s="2">
         <v>440000</v>
@@ -13778,7 +13766,7 @@
         <v>342</v>
       </c>
       <c r="G195" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H195" s="2">
         <v>471000</v>
@@ -13961,7 +13949,7 @@
         <v>344</v>
       </c>
       <c r="G198" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H198" s="2">
         <v>387000</v>
@@ -14011,7 +13999,7 @@
         <v>344</v>
       </c>
       <c r="G199" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H199" s="2">
         <v>338000</v>
@@ -14064,7 +14052,7 @@
         <v>344</v>
       </c>
       <c r="G200" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H200" s="2">
         <v>604000</v>
@@ -14120,7 +14108,7 @@
         <v>342</v>
       </c>
       <c r="G201" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H201" s="2">
         <v>555000</v>
@@ -14170,7 +14158,7 @@
         <v>344</v>
       </c>
       <c r="G202" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H202" s="2">
         <v>230000</v>
@@ -14217,7 +14205,7 @@
         <v>345</v>
       </c>
       <c r="G203" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H203" s="2">
         <v>450000</v>
@@ -14261,7 +14249,7 @@
         <v>341</v>
       </c>
       <c r="G204" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H204" s="2">
         <v>484000</v>
@@ -14308,7 +14296,7 @@
         <v>345</v>
       </c>
       <c r="G205" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H205" s="2">
         <v>776000</v>
@@ -14373,7 +14361,7 @@
         <v>341</v>
       </c>
       <c r="G206" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H206" s="2">
         <v>514000</v>
@@ -14447,7 +14435,7 @@
         <v>342</v>
       </c>
       <c r="G207" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H207" s="2">
         <v>623000</v>
@@ -14512,7 +14500,7 @@
         <v>344</v>
       </c>
       <c r="G208" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H208" s="2">
         <v>397000</v>
@@ -14580,7 +14568,7 @@
         <v>346</v>
       </c>
       <c r="G209" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H209" s="2">
         <v>683000</v>
@@ -14701,7 +14689,7 @@
         <v>344</v>
       </c>
       <c r="G211" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H211" s="2">
         <v>749000</v>
@@ -14757,7 +14745,7 @@
         <v>342</v>
       </c>
       <c r="G212" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H212" s="2">
         <v>686000</v>
@@ -14887,7 +14875,7 @@
         <v>344</v>
       </c>
       <c r="G214" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H214" s="2">
         <v>397000</v>
@@ -14940,7 +14928,7 @@
         <v>345</v>
       </c>
       <c r="G215" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H215" s="2">
         <v>521000</v>
@@ -15061,7 +15049,7 @@
         <v>345</v>
       </c>
       <c r="G217" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H217" s="2">
         <v>569000</v>
@@ -15111,7 +15099,7 @@
         <v>344</v>
       </c>
       <c r="G218" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H218" s="2">
         <v>592000</v>
@@ -15164,7 +15152,7 @@
         <v>344</v>
       </c>
       <c r="G219" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H219" s="2">
         <v>460000</v>
@@ -15214,7 +15202,7 @@
         <v>346</v>
       </c>
       <c r="G220" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H220" s="2">
         <v>452000</v>
@@ -15276,7 +15264,7 @@
         <v>344</v>
       </c>
       <c r="G221" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H221" s="2">
         <v>553000</v>
@@ -15332,7 +15320,7 @@
         <v>346</v>
       </c>
       <c r="G222" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H222" s="2">
         <v>440000</v>
@@ -15524,7 +15512,7 @@
         <v>343</v>
       </c>
       <c r="G225" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H225" s="2">
         <v>490000</v>
@@ -15636,7 +15624,7 @@
         <v>346</v>
       </c>
       <c r="G227" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H227" s="2">
         <v>477000</v>
@@ -15742,7 +15730,7 @@
         <v>344</v>
       </c>
       <c r="G229" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H229" s="2">
         <v>230000</v>
@@ -15789,7 +15777,7 @@
         <v>343</v>
       </c>
       <c r="G230" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H230" s="2">
         <v>467000</v>
@@ -15851,7 +15839,7 @@
         <v>344</v>
       </c>
       <c r="G231" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H231" s="2">
         <v>253000</v>
@@ -15904,7 +15892,7 @@
         <v>341</v>
       </c>
       <c r="G232" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H232" s="2">
         <v>459000</v>
@@ -15963,7 +15951,7 @@
         <v>344</v>
       </c>
       <c r="G233" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H233" s="2">
         <v>550000</v>
@@ -16007,7 +15995,7 @@
         <v>341</v>
       </c>
       <c r="G234" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H234" s="2">
         <v>651000</v>
@@ -16069,7 +16057,7 @@
         <v>341</v>
       </c>
       <c r="G235" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H235" s="2">
         <v>385000</v>
@@ -16128,7 +16116,7 @@
         <v>344</v>
       </c>
       <c r="G236" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H236" s="2">
         <v>230000</v>
@@ -16175,7 +16163,7 @@
         <v>344</v>
       </c>
       <c r="G237" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H237" s="2">
         <v>231000</v>
@@ -16222,7 +16210,7 @@
         <v>345</v>
       </c>
       <c r="G238" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H238" s="2">
         <v>324000</v>
@@ -16269,7 +16257,7 @@
         <v>343</v>
       </c>
       <c r="G239" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H239" s="2">
         <v>651000</v>
@@ -16334,7 +16322,7 @@
         <v>343</v>
       </c>
       <c r="G240" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H240" s="2">
         <v>493000</v>
@@ -16399,7 +16387,7 @@
         <v>342</v>
       </c>
       <c r="G241" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H241" s="2">
         <v>474000</v>
@@ -16470,7 +16458,7 @@
         <v>344</v>
       </c>
       <c r="G242" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H242" s="2">
         <v>614000</v>
@@ -16535,7 +16523,7 @@
         <v>342</v>
       </c>
       <c r="G243" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H243" s="2">
         <v>313000</v>
@@ -16600,7 +16588,7 @@
         <v>345</v>
       </c>
       <c r="G244" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H244" s="2">
         <v>580000</v>
@@ -16665,7 +16653,7 @@
         <v>346</v>
       </c>
       <c r="G245" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H245" s="2">
         <v>594000</v>
@@ -16736,7 +16724,7 @@
         <v>341</v>
       </c>
       <c r="G246" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H246" s="2">
         <v>525000</v>
@@ -16804,7 +16792,7 @@
         <v>342</v>
       </c>
       <c r="G247" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H247" s="2">
         <v>577000</v>
@@ -16863,7 +16851,7 @@
         <v>341</v>
       </c>
       <c r="G248" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H248" s="2">
         <v>635000</v>
@@ -16931,7 +16919,7 @@
         <v>342</v>
       </c>
       <c r="G249" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H249" s="2">
         <v>430000</v>
@@ -16993,7 +16981,7 @@
         <v>346</v>
       </c>
       <c r="G250" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H250" s="2">
         <v>389000</v>
@@ -17052,7 +17040,7 @@
         <v>344</v>
       </c>
       <c r="G251" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H251" s="2">
         <v>573000</v>
@@ -17108,7 +17096,7 @@
         <v>343</v>
       </c>
       <c r="G252" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H252" s="2">
         <v>847000</v>
@@ -17158,7 +17146,7 @@
         <v>343</v>
       </c>
       <c r="G253" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H253" s="2">
         <v>566000</v>
@@ -17276,7 +17264,7 @@
         <v>345</v>
       </c>
       <c r="G255" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H255" s="2">
         <v>518000</v>
@@ -17332,7 +17320,7 @@
         <v>344</v>
       </c>
       <c r="G256" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H256" s="2">
         <v>355000</v>
@@ -17385,7 +17373,7 @@
         <v>344</v>
       </c>
       <c r="G257" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H257" s="2">
         <v>386000</v>
@@ -17497,7 +17485,7 @@
         <v>346</v>
       </c>
       <c r="G259" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H259" s="2">
         <v>394000</v>
@@ -17559,7 +17547,7 @@
         <v>344</v>
       </c>
       <c r="G260" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H260" s="2">
         <v>447000</v>
@@ -17609,7 +17597,7 @@
         <v>341</v>
       </c>
       <c r="G261" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H261" s="2">
         <v>407000</v>
@@ -17724,7 +17712,7 @@
         <v>341</v>
       </c>
       <c r="G263" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H263" s="2">
         <v>607000</v>
@@ -17783,7 +17771,7 @@
         <v>344</v>
       </c>
       <c r="G264" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H264" s="2">
         <v>430000</v>
@@ -17833,7 +17821,7 @@
         <v>341</v>
       </c>
       <c r="G265" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H265" s="2">
         <v>413000</v>
@@ -17889,7 +17877,7 @@
         <v>345</v>
       </c>
       <c r="G266" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H266" s="2">
         <v>339000</v>
@@ -17995,7 +17983,7 @@
         <v>341</v>
       </c>
       <c r="G268" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H268" s="2">
         <v>349000</v>
@@ -18060,7 +18048,7 @@
         <v>346</v>
       </c>
       <c r="G269" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H269" s="2">
         <v>371000</v>
@@ -18122,7 +18110,7 @@
         <v>344</v>
       </c>
       <c r="G270" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H270" s="2">
         <v>386000</v>
@@ -18172,7 +18160,7 @@
         <v>342</v>
       </c>
       <c r="G271" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H271" s="2">
         <v>324000</v>
@@ -18222,7 +18210,7 @@
         <v>342</v>
       </c>
       <c r="G272" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H272" s="2">
         <v>503000</v>
@@ -18271,9 +18259,6 @@
         <v>22</v>
       </c>
       <c r="F273" t="s">
-        <v>341</v>
-      </c>
-      <c r="G273" t="s">
         <v>341</v>
       </c>
       <c r="H273" s="1">
@@ -18351,7 +18336,7 @@
         <v>341</v>
       </c>
       <c r="G274" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H274" s="1">
         <v>693000</v>
@@ -18428,7 +18413,7 @@
         <v>344</v>
       </c>
       <c r="G275" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H275" s="1">
         <v>774000</v>
@@ -18558,7 +18543,7 @@
         <v>344</v>
       </c>
       <c r="G277" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H277" s="1">
         <v>777000</v>
@@ -18608,7 +18593,7 @@
         <v>346</v>
       </c>
       <c r="G278" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H278" s="1">
         <v>635000</v>
@@ -18676,7 +18661,7 @@
         <v>341</v>
       </c>
       <c r="G279" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H279" s="1">
         <v>841000</v>
@@ -18750,7 +18735,7 @@
         <v>344</v>
       </c>
       <c r="G280" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H280" s="1">
         <v>745000</v>
@@ -18812,7 +18797,7 @@
         <v>344</v>
       </c>
       <c r="G281" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H281" s="1">
         <v>502000</v>
@@ -18865,7 +18850,7 @@
         <v>342</v>
       </c>
       <c r="G282" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H282" s="1">
         <v>422000</v>
@@ -18924,7 +18909,7 @@
         <v>346</v>
       </c>
       <c r="G283" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H283" s="1">
         <v>489000</v>
@@ -18986,7 +18971,7 @@
         <v>343</v>
       </c>
       <c r="G284" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H284" s="1">
         <v>564000</v>
@@ -19104,7 +19089,7 @@
         <v>344</v>
       </c>
       <c r="G286" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H286" s="1">
         <v>336000</v>
@@ -19219,7 +19204,7 @@
         <v>344</v>
       </c>
       <c r="G288" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H288" s="1">
         <v>353000</v>
@@ -19281,7 +19266,7 @@
         <v>344</v>
       </c>
       <c r="G289" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H289" s="1">
         <v>395000</v>
@@ -19337,7 +19322,7 @@
         <v>345</v>
       </c>
       <c r="G290" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H290" s="1">
         <v>778000</v>
@@ -19399,7 +19384,7 @@
         <v>344</v>
       </c>
       <c r="G291" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H291" s="1">
         <v>489000</v>
@@ -19514,7 +19499,7 @@
         <v>344</v>
       </c>
       <c r="G293" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H293" s="1">
         <v>729000</v>
@@ -19632,7 +19617,7 @@
         <v>342</v>
       </c>
       <c r="G295" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H295" s="1">
         <v>472000</v>
@@ -19682,7 +19667,7 @@
         <v>344</v>
       </c>
       <c r="G296" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H296" s="1">
         <v>384000</v>
@@ -19738,7 +19723,7 @@
         <v>344</v>
       </c>
       <c r="G297" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H297" s="1">
         <v>393000</v>
@@ -19788,7 +19773,7 @@
         <v>341</v>
       </c>
       <c r="G298" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H298" s="1">
         <v>334000</v>
@@ -19847,7 +19832,7 @@
         <v>344</v>
       </c>
       <c r="G299" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H299" s="1">
         <v>511000</v>
@@ -19909,7 +19894,7 @@
         <v>346</v>
       </c>
       <c r="G300" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H300" s="1">
         <v>481000</v>
@@ -19965,7 +19950,7 @@
         <v>346</v>
       </c>
       <c r="G301" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H301" s="1">
         <v>437000</v>
@@ -20030,7 +20015,7 @@
         <v>341</v>
       </c>
       <c r="G302" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H302" s="1">
         <v>521000</v>
@@ -20086,7 +20071,7 @@
         <v>343</v>
       </c>
       <c r="G303" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H303" s="1">
         <v>350000</v>
@@ -20142,7 +20127,7 @@
         <v>341</v>
       </c>
       <c r="G304" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H304" s="1">
         <v>377000</v>
@@ -20204,7 +20189,7 @@
         <v>345</v>
       </c>
       <c r="G305" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H305" s="1">
         <v>521000</v>
@@ -20251,7 +20236,7 @@
         <v>344</v>
       </c>
       <c r="G306" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H306" s="1">
         <v>284000</v>
@@ -20304,7 +20289,7 @@
         <v>346</v>
       </c>
       <c r="G307" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H307" s="1">
         <v>709000</v>
@@ -20378,7 +20363,7 @@
         <v>341</v>
       </c>
       <c r="G308" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H308" s="1">
         <v>543000</v>
@@ -20455,7 +20440,7 @@
         <v>342</v>
       </c>
       <c r="G309" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H309" s="1">
         <v>572000</v>
@@ -20659,7 +20644,7 @@
         <v>344</v>
       </c>
       <c r="G312" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H312" s="1">
         <v>464000</v>
@@ -20715,7 +20700,7 @@
         <v>344</v>
       </c>
       <c r="G313" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H313" s="1">
         <v>692000</v>
@@ -20777,7 +20762,7 @@
         <v>342</v>
       </c>
       <c r="G314" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H314" s="1">
         <v>709000</v>
@@ -20830,7 +20815,7 @@
         <v>345</v>
       </c>
       <c r="G315" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H315" s="1">
         <v>541000</v>
@@ -20889,7 +20874,7 @@
         <v>345</v>
       </c>
       <c r="G316" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H316" s="1">
         <v>559000</v>
@@ -20945,7 +20930,7 @@
         <v>341</v>
       </c>
       <c r="G317" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H317" s="1">
         <v>435000</v>
@@ -21010,7 +20995,7 @@
         <v>346</v>
       </c>
       <c r="G318" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H318" s="1">
         <v>753000</v>
@@ -21075,7 +21060,7 @@
         <v>341</v>
       </c>
       <c r="G319" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H319" s="1">
         <v>392000</v>
@@ -21140,7 +21125,7 @@
         <v>344</v>
       </c>
       <c r="G320" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H320" s="1">
         <v>660000</v>
@@ -21196,7 +21181,7 @@
         <v>342</v>
       </c>
       <c r="G321" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H321" s="1">
         <v>471000</v>
@@ -21261,7 +21246,7 @@
         <v>343</v>
       </c>
       <c r="G322" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H322" s="1">
         <v>633000</v>
@@ -21326,7 +21311,7 @@
         <v>344</v>
       </c>
       <c r="G323" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H323" s="1">
         <v>439000</v>
@@ -21382,7 +21367,7 @@
         <v>344</v>
       </c>
       <c r="G324" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H324" s="1">
         <v>500000</v>
@@ -21482,7 +21467,7 @@
         <v>344</v>
       </c>
       <c r="G326" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H326" s="1">
         <v>496000</v>
@@ -21535,7 +21520,7 @@
         <v>346</v>
       </c>
       <c r="G327" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H327" s="1">
         <v>443000</v>
@@ -21603,7 +21588,7 @@
         <v>344</v>
       </c>
       <c r="G328" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H328" s="1">
         <v>387000</v>
@@ -21659,7 +21644,7 @@
         <v>344</v>
       </c>
       <c r="G329" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H329" s="1">
         <v>579000</v>
@@ -21712,7 +21697,7 @@
         <v>341</v>
       </c>
       <c r="G330" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H330" s="1">
         <v>318000</v>
@@ -21780,7 +21765,7 @@
         <v>344</v>
       </c>
       <c r="G331" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H331" s="1">
         <v>338000</v>
@@ -21833,7 +21818,7 @@
         <v>341</v>
       </c>
       <c r="G332" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H332" s="1">
         <v>491000</v>
@@ -21869,7 +21854,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="333" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2</v>
       </c>
@@ -21951,7 +21936,7 @@
         <v>343</v>
       </c>
       <c r="G334" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H334" s="1">
         <v>440000</v>
@@ -22013,7 +21998,7 @@
         <v>341</v>
       </c>
       <c r="G335" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H335" s="1">
         <v>355000</v>
@@ -22078,7 +22063,7 @@
         <v>344</v>
       </c>
       <c r="G336" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H336" s="1">
         <v>533000</v>
@@ -22131,7 +22116,7 @@
         <v>346</v>
       </c>
       <c r="G337" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H337" s="1">
         <v>591000</v>
@@ -22199,7 +22184,7 @@
         <v>344</v>
       </c>
       <c r="G338" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H338" s="1">
         <v>248000</v>
@@ -22249,7 +22234,7 @@
         <v>342</v>
       </c>
       <c r="G339" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H339" s="1">
         <v>763000</v>
@@ -22308,7 +22293,7 @@
         <v>344</v>
       </c>
       <c r="G340" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H340" s="1">
         <v>230000</v>
@@ -22352,7 +22337,7 @@
         <v>343</v>
       </c>
       <c r="G341" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H341" s="1">
         <v>460000</v>
@@ -22491,7 +22476,7 @@
         <v>344</v>
       </c>
       <c r="G343" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H343" s="1">
         <v>930000</v>
@@ -22550,7 +22535,7 @@
         <v>345</v>
       </c>
       <c r="G344" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H344" s="1">
         <v>248000</v>
@@ -22621,7 +22606,7 @@
         <v>341</v>
       </c>
       <c r="G345" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H345" s="1">
         <v>672000</v>
@@ -22692,7 +22677,7 @@
         <v>346</v>
       </c>
       <c r="G346" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H346" s="1">
         <v>923000</v>
@@ -22825,7 +22810,7 @@
         <v>344</v>
       </c>
       <c r="G348" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H348" s="1">
         <v>426000</v>
@@ -22887,7 +22872,7 @@
         <v>343</v>
       </c>
       <c r="G349" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H349" s="1">
         <v>505000</v>
@@ -22955,7 +22940,7 @@
         <v>344</v>
       </c>
       <c r="G350" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H350" s="1">
         <v>550000</v>
@@ -23011,7 +22996,7 @@
         <v>342</v>
       </c>
       <c r="G351" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H351" s="1">
         <v>536000</v>
@@ -23079,7 +23064,7 @@
         <v>345</v>
       </c>
       <c r="G352" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H352" s="1">
         <v>493000</v>
@@ -23138,7 +23123,7 @@
         <v>346</v>
       </c>
       <c r="G353" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H353" s="1">
         <v>689000</v>
@@ -23203,7 +23188,7 @@
         <v>342</v>
       </c>
       <c r="G354" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H354" s="1">
         <v>559000</v>
@@ -23265,7 +23250,7 @@
         <v>341</v>
       </c>
       <c r="G355" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H355" s="1">
         <v>532000</v>
@@ -23327,7 +23312,7 @@
         <v>344</v>
       </c>
       <c r="G356" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H356" s="1">
         <v>604000</v>
@@ -23457,7 +23442,7 @@
         <v>341</v>
       </c>
       <c r="G358" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H358" s="1">
         <v>585000</v>
@@ -23516,7 +23501,7 @@
         <v>344</v>
       </c>
       <c r="G359" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H359" s="1">
         <v>646000</v>
@@ -23575,7 +23560,7 @@
         <v>344</v>
       </c>
       <c r="G360" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H360" s="1">
         <v>581000</v>
@@ -23628,7 +23613,7 @@
         <v>342</v>
       </c>
       <c r="G361" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H361" s="1">
         <v>598000</v>
@@ -23681,7 +23666,7 @@
         <v>342</v>
       </c>
       <c r="G362" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H362" s="1">
         <v>546000</v>
@@ -23749,7 +23734,7 @@
         <v>341</v>
       </c>
       <c r="G363" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H363" s="1">
         <v>504000</v>
@@ -23805,7 +23790,7 @@
         <v>346</v>
       </c>
       <c r="G364" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H364" s="1">
         <v>610000</v>
@@ -23870,7 +23855,7 @@
         <v>341</v>
       </c>
       <c r="G365" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H365" s="1">
         <v>638000</v>
@@ -24047,7 +24032,7 @@
         <v>346</v>
       </c>
       <c r="G368" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H368" s="1">
         <v>584000</v>
@@ -24118,7 +24103,7 @@
         <v>343</v>
       </c>
       <c r="G369" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H369" s="1">
         <v>402000</v>
@@ -24180,7 +24165,7 @@
         <v>344</v>
       </c>
       <c r="G370" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H370" s="1">
         <v>590000</v>
@@ -24230,7 +24215,7 @@
         <v>342</v>
       </c>
       <c r="G371" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H371" s="1">
         <v>555000</v>
@@ -24321,7 +24306,7 @@
         <v>341</v>
       </c>
       <c r="G373" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H373" s="1">
         <v>499000</v>
@@ -24359,7 +24344,7 @@
         <v>345</v>
       </c>
       <c r="G374" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H374" s="1">
         <v>450000</v>
@@ -24403,7 +24388,7 @@
         <v>342</v>
       </c>
       <c r="G375" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H375" s="1">
         <v>534000</v>
@@ -24474,7 +24459,7 @@
         <v>346</v>
       </c>
       <c r="G376" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H376" s="1">
         <v>645000</v>
@@ -24539,7 +24524,7 @@
         <v>345</v>
       </c>
       <c r="G377" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H377" s="1">
         <v>535000</v>
@@ -24607,7 +24592,7 @@
         <v>342</v>
       </c>
       <c r="G378" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H378" s="1">
         <v>595000</v>
@@ -24734,7 +24719,7 @@
         <v>342</v>
       </c>
       <c r="G380" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H380" s="1">
         <v>632000</v>
@@ -24784,7 +24769,7 @@
         <v>343</v>
       </c>
       <c r="G381" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H381" s="1">
         <v>485000</v>
@@ -24852,7 +24837,7 @@
         <v>346</v>
       </c>
       <c r="G382" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H382" s="1">
         <v>703000</v>
@@ -24917,7 +24902,7 @@
         <v>344</v>
       </c>
       <c r="G383" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H383" s="1">
         <v>489000</v>
@@ -24973,7 +24958,7 @@
         <v>343</v>
       </c>
       <c r="G384" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H384" s="1">
         <v>450000</v>
@@ -25035,7 +25020,7 @@
         <v>344</v>
       </c>
       <c r="G385" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H385" s="1">
         <v>443000</v>
@@ -25074,7 +25059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>2</v>
       </c>
@@ -25091,7 +25076,7 @@
         <v>344</v>
       </c>
       <c r="G386" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H386" s="1">
         <v>482000</v>
@@ -25150,7 +25135,7 @@
         <v>342</v>
       </c>
       <c r="G387" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H387" s="1">
         <v>586000</v>
@@ -25215,7 +25200,7 @@
         <v>341</v>
       </c>
       <c r="G388" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H388" s="1">
         <v>382000</v>
@@ -25286,7 +25271,7 @@
         <v>344</v>
       </c>
       <c r="G389" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H389" s="1">
         <v>386000</v>
@@ -25342,7 +25327,7 @@
         <v>344</v>
       </c>
       <c r="G390" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H390" s="1">
         <v>738000</v>
@@ -25401,7 +25386,7 @@
         <v>344</v>
       </c>
       <c r="G391" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H391" s="1">
         <v>431000</v>
@@ -25454,7 +25439,7 @@
         <v>341</v>
       </c>
       <c r="G392" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H392" s="1">
         <v>402000</v>
@@ -25519,7 +25504,7 @@
         <v>342</v>
       </c>
       <c r="G393" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H393" s="1">
         <v>767000</v>
@@ -25572,7 +25557,7 @@
         <v>344</v>
       </c>
       <c r="G394" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H394" s="1">
         <v>470000</v>
@@ -25624,9 +25609,6 @@
       <c r="F395" t="s">
         <v>341</v>
       </c>
-      <c r="G395" t="s">
-        <v>341</v>
-      </c>
       <c r="H395" s="1">
         <v>392000</v>
       </c>
@@ -25681,7 +25663,7 @@
         <v>344</v>
       </c>
       <c r="G396" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H396" s="1">
         <v>395000</v>
@@ -25734,7 +25716,7 @@
         <v>341</v>
       </c>
       <c r="G397" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H397" s="1">
         <v>539000</v>
@@ -25861,7 +25843,7 @@
         <v>345</v>
       </c>
       <c r="G399" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H399" s="1">
         <v>244000</v>
@@ -25917,7 +25899,7 @@
         <v>346</v>
       </c>
       <c r="G400" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H400" s="1">
         <v>619000</v>
@@ -25979,7 +25961,7 @@
         <v>345</v>
       </c>
       <c r="G401" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H401" s="1">
         <v>514000</v>
@@ -26035,7 +26017,7 @@
         <v>341</v>
       </c>
       <c r="G402" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H402" s="1">
         <v>293000</v>
@@ -26094,7 +26076,7 @@
         <v>341</v>
       </c>
       <c r="G403" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H403" s="1">
         <v>377000</v>
@@ -26209,7 +26191,7 @@
         <v>343</v>
       </c>
       <c r="G405" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H405" s="1">
         <v>362000</v>
@@ -26262,7 +26244,7 @@
         <v>344</v>
       </c>
       <c r="G406" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H406" s="1">
         <v>524000</v>
@@ -26315,7 +26297,7 @@
         <v>346</v>
       </c>
       <c r="G407" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H407" s="1">
         <v>459000</v>
@@ -26374,7 +26356,7 @@
         <v>343</v>
       </c>
       <c r="G408" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H408" s="1">
         <v>353000</v>
@@ -26424,7 +26406,7 @@
         <v>344</v>
       </c>
       <c r="G409" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H409" s="1">
         <v>622000</v>
@@ -26489,7 +26471,7 @@
         <v>344</v>
       </c>
       <c r="G410" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H410" s="1">
         <v>573000</v>
@@ -26545,7 +26527,7 @@
         <v>346</v>
       </c>
       <c r="G411" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H411" s="1">
         <v>394000</v>
@@ -26616,7 +26598,7 @@
         <v>345</v>
       </c>
       <c r="G412" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H412" s="1">
         <v>580000</v>
@@ -26681,7 +26663,7 @@
         <v>342</v>
       </c>
       <c r="G413" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H413" s="1">
         <v>474000</v>
@@ -26740,7 +26722,7 @@
         <v>343</v>
       </c>
       <c r="G414" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H414" s="1">
         <v>732000</v>
@@ -26802,7 +26784,7 @@
         <v>341</v>
       </c>
       <c r="G415" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H415" s="1">
         <v>607000</v>
@@ -26873,7 +26855,7 @@
         <v>346</v>
       </c>
       <c r="G416" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H416" s="1">
         <v>637000</v>
@@ -26932,7 +26914,7 @@
         <v>344</v>
       </c>
       <c r="G417" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H417" s="1">
         <v>548000</v>
@@ -26985,7 +26967,7 @@
         <v>346</v>
       </c>
       <c r="G418" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H418" s="1">
         <v>594000</v>
@@ -27053,7 +27035,7 @@
         <v>341</v>
       </c>
       <c r="G419" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H419" s="1">
         <v>635000</v>
@@ -27180,7 +27162,7 @@
         <v>342</v>
       </c>
       <c r="G421" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H421" s="1">
         <v>547000</v>
@@ -27236,7 +27218,7 @@
         <v>341</v>
       </c>
       <c r="G422" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H422" s="1">
         <v>755000</v>
@@ -27307,7 +27289,7 @@
         <v>342</v>
       </c>
       <c r="G423" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H423" s="1">
         <v>324000</v>
@@ -27369,7 +27351,7 @@
         <v>343</v>
       </c>
       <c r="G424" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H424" s="1">
         <v>651000</v>
@@ -27440,7 +27422,7 @@
         <v>344</v>
       </c>
       <c r="G425" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H425" s="1">
         <v>510000</v>
@@ -27493,7 +27475,7 @@
         <v>344</v>
       </c>
       <c r="G426" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H426" s="1">
         <v>513000</v>
@@ -27549,7 +27531,7 @@
         <v>344</v>
       </c>
       <c r="G427" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H427" s="1">
         <v>447000</v>
@@ -27614,7 +27596,7 @@
         <v>344</v>
       </c>
       <c r="G428" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H428" s="1">
         <v>386000</v>
@@ -27673,7 +27655,7 @@
         <v>346</v>
       </c>
       <c r="G429" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H429" s="1">
         <v>459000</v>
@@ -27747,7 +27729,7 @@
         <v>342</v>
       </c>
       <c r="G430" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H430" s="1">
         <v>580000</v>
@@ -27806,7 +27788,7 @@
         <v>341</v>
       </c>
       <c r="G431" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H431" s="1">
         <v>525000</v>
@@ -27868,7 +27850,7 @@
         <v>341</v>
       </c>
       <c r="G432" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H432" s="1">
         <v>514000</v>
@@ -27930,7 +27912,7 @@
         <v>345</v>
       </c>
       <c r="G433" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H433" s="1">
         <v>339000</v>
@@ -27989,7 +27971,7 @@
         <v>344</v>
       </c>
       <c r="G434" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H434" s="1">
         <v>352000</v>
@@ -28054,7 +28036,7 @@
         <v>343</v>
       </c>
       <c r="G435" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H435" s="1">
         <v>623000</v>
@@ -28107,7 +28089,7 @@
         <v>343</v>
       </c>
       <c r="G436" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H436" s="1">
         <v>493000</v>
@@ -28154,7 +28136,7 @@
         <v>345</v>
       </c>
       <c r="G437" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H437" s="1">
         <v>386000</v>
@@ -28207,7 +28189,7 @@
         <v>341</v>
       </c>
       <c r="G438" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H438" s="1">
         <v>326000</v>
@@ -28260,7 +28242,7 @@
         <v>342</v>
       </c>
       <c r="G439" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H439" s="1">
         <v>230000</v>
@@ -28310,7 +28292,7 @@
         <v>346</v>
       </c>
       <c r="G440" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H440" s="1">
         <v>418000</v>
@@ -28366,7 +28348,7 @@
         <v>342</v>
       </c>
       <c r="G441" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H441" s="1">
         <v>430000</v>
@@ -28419,7 +28401,7 @@
         <v>342</v>
       </c>
       <c r="G442" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H442" s="1">
         <v>577000</v>
@@ -28472,7 +28454,7 @@
         <v>341</v>
       </c>
       <c r="G443" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H443" s="1">
         <v>482000</v>
@@ -28552,7 +28534,7 @@
         <v>346</v>
       </c>
       <c r="G444" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H444" s="1">
         <v>835000</v>
@@ -28620,7 +28602,7 @@
         <v>341</v>
       </c>
       <c r="G445" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H445" s="1">
         <v>464000</v>
@@ -28685,7 +28667,7 @@
         <v>345</v>
       </c>
       <c r="G446" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H446" s="1">
         <v>763000</v>
@@ -28752,9 +28734,6 @@
       <c r="F447" t="s">
         <v>341</v>
       </c>
-      <c r="G447" t="s">
-        <v>341</v>
-      </c>
       <c r="H447" s="1">
         <v>511000</v>
       </c>
@@ -28818,7 +28797,7 @@
         <v>342</v>
       </c>
       <c r="G448" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H448" s="1">
         <v>509000</v>
@@ -28880,7 +28859,7 @@
         <v>344</v>
       </c>
       <c r="G449" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H449" s="1">
         <v>804000</v>
@@ -28936,7 +28915,7 @@
         <v>342</v>
       </c>
       <c r="G450" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H450" s="1">
         <v>661000</v>
@@ -28997,9 +28976,6 @@
       <c r="F451" t="s">
         <v>341</v>
       </c>
-      <c r="G451" t="s">
-        <v>341</v>
-      </c>
       <c r="H451" s="1">
         <v>564000</v>
       </c>
@@ -29057,7 +29033,7 @@
         <v>341</v>
       </c>
       <c r="G452" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H452" s="1">
         <v>424000</v>
@@ -29184,7 +29160,7 @@
         <v>344</v>
       </c>
       <c r="G454" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H454" s="1">
         <v>616000</v>
@@ -29290,7 +29266,7 @@
         <v>341</v>
       </c>
       <c r="G456" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H456" s="1">
         <v>445000</v>
@@ -29358,7 +29334,7 @@
         <v>342</v>
       </c>
       <c r="G457" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H457" s="1">
         <v>230000</v>
@@ -29420,7 +29396,7 @@
         <v>342</v>
       </c>
       <c r="G458" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H458" s="1">
         <v>578000</v>
@@ -29476,7 +29452,7 @@
         <v>343</v>
       </c>
       <c r="G459" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H459" s="1">
         <v>426000</v>
@@ -29541,7 +29517,7 @@
         <v>346</v>
       </c>
       <c r="G460" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H460" s="1">
         <v>424000</v>
@@ -29606,7 +29582,7 @@
         <v>344</v>
       </c>
       <c r="G461" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H461" s="1">
         <v>518000</v>
@@ -29659,7 +29635,7 @@
         <v>344</v>
       </c>
       <c r="G462" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H462" s="1">
         <v>394000</v>
@@ -29709,7 +29685,7 @@
         <v>341</v>
       </c>
       <c r="G463" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H463" s="1">
         <v>506000</v>
@@ -29771,7 +29747,7 @@
         <v>344</v>
       </c>
       <c r="G464" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H464" s="1">
         <v>344000</v>
@@ -29824,7 +29800,7 @@
         <v>345</v>
       </c>
       <c r="G465" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H465" s="1">
         <v>288000</v>
@@ -29939,7 +29915,7 @@
         <v>346</v>
       </c>
       <c r="G467" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H467" s="1">
         <v>605000</v>
@@ -29995,7 +29971,7 @@
         <v>344</v>
       </c>
       <c r="G468" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H468" s="1">
         <v>561000</v>
@@ -30045,7 +30021,7 @@
         <v>344</v>
       </c>
       <c r="G469" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H469" s="1">
         <v>310000</v>
@@ -30098,7 +30074,7 @@
         <v>343</v>
       </c>
       <c r="G470" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H470" s="1">
         <v>389000</v>
@@ -30160,7 +30136,7 @@
         <v>344</v>
       </c>
       <c r="G471" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H471" s="1">
         <v>432000</v>
@@ -30216,7 +30192,7 @@
         <v>346</v>
       </c>
       <c r="G472" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H472" s="1">
         <v>443000</v>
@@ -30284,7 +30260,7 @@
         <v>342</v>
       </c>
       <c r="G473" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H473" s="1">
         <v>363000</v>
@@ -30334,7 +30310,7 @@
         <v>344</v>
       </c>
       <c r="G474" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H474" s="1">
         <v>249000</v>
@@ -30381,7 +30357,7 @@
         <v>346</v>
       </c>
       <c r="G475" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H475" s="1">
         <v>563000</v>
@@ -30431,7 +30407,7 @@
         <v>346</v>
       </c>
       <c r="G476" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H476" s="1">
         <v>432000</v>
@@ -30475,7 +30451,7 @@
         <v>341</v>
       </c>
       <c r="G477" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H477" s="1">
         <v>766000</v>
@@ -30555,7 +30531,7 @@
         <v>344</v>
       </c>
       <c r="G478" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H478" s="1">
         <v>611000</v>
@@ -30691,7 +30667,7 @@
         <v>342</v>
       </c>
       <c r="G480" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H480" s="1">
         <v>593000</v>
@@ -30753,7 +30729,7 @@
         <v>344</v>
       </c>
       <c r="G481" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H481" s="1">
         <v>454000</v>
@@ -30862,7 +30838,7 @@
         <v>341</v>
       </c>
       <c r="G483" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H483" s="1">
         <v>788000</v>
@@ -30980,7 +30956,7 @@
         <v>341</v>
       </c>
       <c r="G485" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H485" s="1">
         <v>572000</v>
@@ -31054,7 +31030,7 @@
         <v>346</v>
       </c>
       <c r="G486" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H486" s="1">
         <v>703000</v>
@@ -31175,7 +31151,7 @@
         <v>344</v>
       </c>
       <c r="G488" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H488" s="1">
         <v>553000</v>
@@ -31231,7 +31207,7 @@
         <v>344</v>
       </c>
       <c r="G489" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H489" s="1">
         <v>494000</v>
@@ -31287,7 +31263,7 @@
         <v>342</v>
       </c>
       <c r="G490" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H490" s="1">
         <v>332000</v>
@@ -31544,7 +31520,7 @@
         <v>346</v>
       </c>
       <c r="G494" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H494" s="1">
         <v>608000</v>
@@ -31615,7 +31591,7 @@
         <v>344</v>
       </c>
       <c r="G495" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H495" s="1">
         <v>387000</v>
@@ -31674,7 +31650,7 @@
         <v>346</v>
       </c>
       <c r="G496" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H496" s="1">
         <v>482000</v>
@@ -31860,7 +31836,7 @@
         <v>341</v>
       </c>
       <c r="G499" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H499" s="1">
         <v>595000</v>
@@ -31925,7 +31901,7 @@
         <v>344</v>
       </c>
       <c r="G500" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H500" s="1">
         <v>326000</v>
@@ -31978,7 +31954,7 @@
         <v>344</v>
       </c>
       <c r="G501" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H501" s="1">
         <v>413000</v>
@@ -32034,7 +32010,7 @@
         <v>343</v>
       </c>
       <c r="G502" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H502" s="1">
         <v>464000</v>
@@ -32149,7 +32125,7 @@
         <v>341</v>
       </c>
       <c r="G504" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H504" s="1">
         <v>300000</v>
@@ -32208,7 +32184,7 @@
         <v>345</v>
       </c>
       <c r="G505" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H505" s="1">
         <v>442000</v>
@@ -32314,7 +32290,7 @@
         <v>346</v>
       </c>
       <c r="G507" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H507" s="1">
         <v>595000</v>
@@ -32423,7 +32399,7 @@
         <v>343</v>
       </c>
       <c r="G509" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H509" s="1">
         <v>529000</v>
@@ -32485,7 +32461,7 @@
         <v>346</v>
       </c>
       <c r="G510" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H510" s="1">
         <v>230000</v>
@@ -32537,7 +32513,7 @@
         <v>343</v>
       </c>
       <c r="G511" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H511" s="1">
         <v>566000</v>
@@ -32608,7 +32584,7 @@
         <v>344</v>
       </c>
       <c r="G512" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H512" s="1">
         <v>355000</v>
@@ -32676,7 +32652,7 @@
         <v>346</v>
       </c>
       <c r="G513" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H513" s="1">
         <v>515000</v>
@@ -32738,7 +32714,7 @@
         <v>341</v>
       </c>
       <c r="G514" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H514" s="1">
         <v>413000</v>
@@ -32859,7 +32835,7 @@
         <v>343</v>
       </c>
       <c r="G516" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H516" s="1">
         <v>847000</v>
@@ -32921,7 +32897,7 @@
         <v>344</v>
       </c>
       <c r="G517" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H517" s="1">
         <v>614000</v>
@@ -33042,7 +33018,7 @@
         <v>344</v>
       </c>
       <c r="G519" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H519" s="1">
         <v>592000</v>
@@ -33098,7 +33074,7 @@
         <v>345</v>
       </c>
       <c r="G520" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H520" s="1">
         <v>518000</v>
@@ -33166,7 +33142,7 @@
         <v>342</v>
       </c>
       <c r="G521" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H521" s="1">
         <v>695000</v>
@@ -33225,7 +33201,7 @@
         <v>341</v>
       </c>
       <c r="G522" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H522" s="1">
         <v>514000</v>
@@ -33296,7 +33272,7 @@
         <v>342</v>
       </c>
       <c r="G523" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H523" s="1">
         <v>686000</v>
@@ -33358,7 +33334,7 @@
         <v>342</v>
       </c>
       <c r="G524" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H524" s="1">
         <v>553000</v>
@@ -33473,7 +33449,7 @@
         <v>346</v>
       </c>
       <c r="G526" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H526" s="1">
         <v>683000</v>
@@ -33538,7 +33514,7 @@
         <v>342</v>
       </c>
       <c r="G527" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H527" s="1">
         <v>313000</v>
@@ -33597,7 +33573,7 @@
         <v>341</v>
       </c>
       <c r="G528" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H528" s="1">
         <v>349000</v>
@@ -33665,7 +33641,7 @@
         <v>341</v>
       </c>
       <c r="G529" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H529" s="1">
         <v>385000</v>
@@ -33727,7 +33703,7 @@
         <v>344</v>
       </c>
       <c r="G530" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H530" s="1">
         <v>460000</v>
@@ -33780,7 +33756,7 @@
         <v>342</v>
       </c>
       <c r="G531" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H531" s="1">
         <v>623000</v>
@@ -33836,7 +33812,7 @@
         <v>345</v>
       </c>
       <c r="G532" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H532" s="1">
         <v>776000</v>
@@ -33889,7 +33865,7 @@
         <v>344</v>
       </c>
       <c r="G533" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H533" s="1">
         <v>386000</v>
@@ -33939,7 +33915,7 @@
         <v>344</v>
       </c>
       <c r="G534" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H534" s="1">
         <v>392000</v>
@@ -33995,7 +33971,7 @@
         <v>344</v>
       </c>
       <c r="G535" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H535" s="1">
         <v>543000</v>
@@ -34045,7 +34021,7 @@
         <v>343</v>
       </c>
       <c r="G536" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H536" s="1">
         <v>490000</v>
@@ -34095,7 +34071,7 @@
         <v>344</v>
       </c>
       <c r="G537" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H537" s="1">
         <v>397000</v>
@@ -34148,7 +34124,7 @@
         <v>344</v>
       </c>
       <c r="G538" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H538" s="1">
         <v>397000</v>
@@ -34204,7 +34180,7 @@
         <v>346</v>
       </c>
       <c r="G539" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H539" s="1">
         <v>440000</v>
@@ -34263,7 +34239,7 @@
         <v>343</v>
       </c>
       <c r="G540" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H540" s="1">
         <v>528000</v>
@@ -34328,7 +34304,7 @@
         <v>346</v>
       </c>
       <c r="G541" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H541" s="1">
         <v>238000</v>
@@ -34449,7 +34425,7 @@
         <v>345</v>
       </c>
       <c r="G543" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H543" s="1">
         <v>324000</v>
@@ -34496,7 +34472,7 @@
         <v>346</v>
       </c>
       <c r="G544" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H544" s="1">
         <v>371000</v>
@@ -34546,7 +34522,7 @@
         <v>341</v>
       </c>
       <c r="G545" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H545" s="2">
         <v>585000</v>
@@ -34611,7 +34587,7 @@
         <v>346</v>
       </c>
       <c r="G546" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H546" s="2">
         <v>923000</v>
@@ -34688,7 +34664,7 @@
         <v>344</v>
       </c>
       <c r="G547" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H547" s="2">
         <v>774000</v>
@@ -34747,7 +34723,7 @@
         <v>343</v>
       </c>
       <c r="G548" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H548" s="2">
         <v>460000</v>
@@ -34824,7 +34800,7 @@
         <v>344</v>
       </c>
       <c r="G549" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H549" s="2">
         <v>930000</v>
@@ -34930,7 +34906,7 @@
         <v>341</v>
       </c>
       <c r="G551" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H551" s="2">
         <v>672000</v>
@@ -34988,9 +34964,6 @@
       <c r="F552" t="s">
         <v>341</v>
       </c>
-      <c r="G552" t="s">
-        <v>341</v>
-      </c>
       <c r="H552" s="2">
         <v>503000</v>
       </c>
@@ -35063,7 +35036,7 @@
         <v>344</v>
       </c>
       <c r="G553" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H553" s="2">
         <v>729000</v>
@@ -35116,7 +35089,7 @@
         <v>345</v>
       </c>
       <c r="G554" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H554" s="2">
         <v>493000</v>
@@ -35178,7 +35151,7 @@
         <v>344</v>
       </c>
       <c r="G555" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H555" s="2">
         <v>646000</v>
@@ -35296,7 +35269,7 @@
         <v>342</v>
       </c>
       <c r="G557" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H557" s="2">
         <v>536000</v>
@@ -35358,7 +35331,7 @@
         <v>346</v>
       </c>
       <c r="G558" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H558" s="2">
         <v>584000</v>
@@ -35420,7 +35393,7 @@
         <v>346</v>
       </c>
       <c r="G559" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H559" s="2">
         <v>502000</v>
@@ -35485,7 +35458,7 @@
         <v>344</v>
       </c>
       <c r="G560" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H560" s="2">
         <v>373000</v>
@@ -35541,7 +35514,7 @@
         <v>344</v>
       </c>
       <c r="G561" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H561" s="2">
         <v>384000</v>
@@ -35656,7 +35629,7 @@
         <v>344</v>
       </c>
       <c r="G563" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H563" s="2">
         <v>426000</v>
@@ -35709,7 +35682,7 @@
         <v>344</v>
       </c>
       <c r="G564" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H564" s="2">
         <v>393000</v>
@@ -35821,7 +35794,7 @@
         <v>342</v>
       </c>
       <c r="G566" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H566" s="2">
         <v>422000</v>
@@ -35948,7 +35921,7 @@
         <v>343</v>
       </c>
       <c r="G568" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H568" s="2">
         <v>564000</v>
@@ -36010,7 +35983,7 @@
         <v>341</v>
       </c>
       <c r="G569" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H569" s="2">
         <v>504000</v>
@@ -36078,7 +36051,7 @@
         <v>341</v>
       </c>
       <c r="G570" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H570" s="2">
         <v>532000</v>
@@ -36140,7 +36113,7 @@
         <v>342</v>
       </c>
       <c r="G571" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H571" s="2">
         <v>472000</v>
@@ -36196,7 +36169,7 @@
         <v>345</v>
       </c>
       <c r="G572" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H572" s="2">
         <v>521000</v>
@@ -36249,7 +36222,7 @@
         <v>346</v>
       </c>
       <c r="G573" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H573" s="2">
         <v>437000</v>
@@ -36311,7 +36284,7 @@
         <v>342</v>
       </c>
       <c r="G574" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H574" s="2">
         <v>230000</v>
@@ -36361,7 +36334,7 @@
         <v>344</v>
       </c>
       <c r="G575" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H575" s="2">
         <v>395000</v>
@@ -36464,7 +36437,7 @@
         <v>342</v>
       </c>
       <c r="G577" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H577" s="2">
         <v>598000</v>
@@ -36517,7 +36490,7 @@
         <v>341</v>
       </c>
       <c r="G578" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H578" s="2">
         <v>499000</v>
@@ -36567,7 +36540,7 @@
         <v>341</v>
       </c>
       <c r="G579" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H579" s="2">
         <v>693000</v>
@@ -36611,7 +36584,7 @@
         <v>344</v>
       </c>
       <c r="G580" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H580" s="2">
         <v>616000</v>
@@ -36670,7 +36643,7 @@
         <v>346</v>
       </c>
       <c r="G581" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H581" s="2">
         <v>645000</v>
@@ -36732,7 +36705,7 @@
         <v>341</v>
       </c>
       <c r="G582" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H582" s="2">
         <v>382000</v>
@@ -36806,7 +36779,7 @@
         <v>343</v>
       </c>
       <c r="G583" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H583" s="2">
         <v>450000</v>
@@ -36883,7 +36856,7 @@
         <v>346</v>
       </c>
       <c r="G584" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H584" s="2">
         <v>605000</v>
@@ -36957,7 +36930,7 @@
         <v>344</v>
       </c>
       <c r="G585" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H585" s="2">
         <v>804000</v>
@@ -37016,7 +36989,7 @@
         <v>342</v>
       </c>
       <c r="G586" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H586" s="2">
         <v>509000</v>
@@ -37075,7 +37048,7 @@
         <v>342</v>
       </c>
       <c r="G587" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H587" s="2">
         <v>534000</v>
@@ -37134,7 +37107,7 @@
         <v>341</v>
       </c>
       <c r="G588" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H588" s="2">
         <v>464000</v>
@@ -37257,9 +37230,6 @@
       <c r="F590" t="s">
         <v>341</v>
       </c>
-      <c r="G590" t="s">
-        <v>341</v>
-      </c>
       <c r="H590" s="2">
         <v>511000</v>
       </c>
@@ -37323,7 +37293,7 @@
         <v>344</v>
       </c>
       <c r="G591" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H591" s="2">
         <v>441000</v>
@@ -37382,7 +37352,7 @@
         <v>344</v>
       </c>
       <c r="G592" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H592" s="2">
         <v>738000</v>
@@ -37432,7 +37402,7 @@
         <v>346</v>
       </c>
       <c r="G593" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H593" s="2">
         <v>424000</v>
@@ -37500,7 +37470,7 @@
         <v>341</v>
       </c>
       <c r="G594" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H594" s="2">
         <v>445000</v>
@@ -37565,7 +37535,7 @@
         <v>342</v>
       </c>
       <c r="G595" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H595" s="2">
         <v>578000</v>
@@ -37621,7 +37591,7 @@
         <v>342</v>
       </c>
       <c r="G596" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H596" s="2">
         <v>767000</v>
@@ -37680,7 +37650,7 @@
         <v>343</v>
       </c>
       <c r="G597" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H597" s="2">
         <v>360000</v>
@@ -37742,7 +37712,7 @@
         <v>344</v>
       </c>
       <c r="G598" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H598" s="2">
         <v>470000</v>
@@ -37792,7 +37762,7 @@
         <v>342</v>
       </c>
       <c r="G599" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H599" s="2">
         <v>563000</v>
@@ -37845,7 +37815,7 @@
         <v>345</v>
       </c>
       <c r="G600" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H600" s="2">
         <v>288000</v>
@@ -37895,7 +37865,7 @@
         <v>342</v>
       </c>
       <c r="G601" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H601" s="2">
         <v>632000</v>
@@ -37951,7 +37921,7 @@
         <v>343</v>
       </c>
       <c r="G602" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H602" s="2">
         <v>426000</v>
@@ -38013,7 +37983,7 @@
         <v>344</v>
       </c>
       <c r="G603" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H603" s="2">
         <v>386000</v>
@@ -38066,7 +38036,7 @@
         <v>344</v>
       </c>
       <c r="G604" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H604" s="2">
         <v>249000</v>
@@ -38184,7 +38154,7 @@
         <v>344</v>
       </c>
       <c r="G606" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H606" s="2">
         <v>310000</v>
@@ -38237,7 +38207,7 @@
         <v>341</v>
       </c>
       <c r="G607" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H607" s="2">
         <v>402000</v>
@@ -38290,7 +38260,7 @@
         <v>345</v>
       </c>
       <c r="G608" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H608" s="2">
         <v>244000</v>
@@ -38343,7 +38313,7 @@
         <v>344</v>
       </c>
       <c r="G609" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H609" s="2">
         <v>395000</v>
@@ -38396,7 +38366,7 @@
         <v>345</v>
       </c>
       <c r="G610" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H610" s="2">
         <v>514000</v>
@@ -38442,9 +38412,6 @@
       <c r="F611" t="s">
         <v>341</v>
       </c>
-      <c r="G611" t="s">
-        <v>341</v>
-      </c>
       <c r="H611" s="2">
         <v>392000</v>
       </c>
@@ -38505,7 +38472,7 @@
         <v>343</v>
       </c>
       <c r="G612" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H612" s="2">
         <v>485000</v>
@@ -38567,7 +38534,7 @@
         <v>346</v>
       </c>
       <c r="G613" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H613" s="2">
         <v>432000</v>
@@ -38676,7 +38643,7 @@
         <v>341</v>
       </c>
       <c r="G615" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H615" s="2">
         <v>572000</v>
@@ -38750,7 +38717,7 @@
         <v>341</v>
       </c>
       <c r="G616" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H616" s="2">
         <v>766000</v>
@@ -38821,7 +38788,7 @@
         <v>344</v>
       </c>
       <c r="G617" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H617" s="2">
         <v>745000</v>
@@ -38883,7 +38850,7 @@
         <v>346</v>
       </c>
       <c r="G618" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H618" s="2">
         <v>595000</v>
@@ -38951,7 +38918,7 @@
         <v>344</v>
       </c>
       <c r="G619" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H619" s="2">
         <v>611000</v>
@@ -39010,7 +38977,7 @@
         <v>345</v>
       </c>
       <c r="G620" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H620" s="2">
         <v>778000</v>
@@ -39063,7 +39030,7 @@
         <v>343</v>
       </c>
       <c r="G621" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H621" s="2">
         <v>529000</v>
@@ -39134,7 +39101,7 @@
         <v>342</v>
       </c>
       <c r="G622" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H622" s="2">
         <v>333000</v>
@@ -39326,7 +39293,7 @@
         <v>346</v>
       </c>
       <c r="G625" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H625" s="2">
         <v>230000</v>
@@ -39453,7 +39420,7 @@
         <v>344</v>
       </c>
       <c r="G627" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H627" s="2">
         <v>502000</v>
@@ -39512,7 +39479,7 @@
         <v>343</v>
       </c>
       <c r="G628" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H628" s="2">
         <v>464000</v>
@@ -39583,7 +39550,7 @@
         <v>344</v>
       </c>
       <c r="G629" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H629" s="2">
         <v>387000</v>
@@ -39642,7 +39609,7 @@
         <v>344</v>
       </c>
       <c r="G630" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H630" s="2">
         <v>580000</v>
@@ -39754,7 +39721,7 @@
         <v>344</v>
       </c>
       <c r="G632" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H632" s="2">
         <v>494000</v>
@@ -39869,7 +39836,7 @@
         <v>343</v>
       </c>
       <c r="G634" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H634" s="2">
         <v>350000</v>
@@ -39928,7 +39895,7 @@
         <v>341</v>
       </c>
       <c r="G635" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H635" s="2">
         <v>377000</v>
@@ -40049,7 +40016,7 @@
         <v>341</v>
       </c>
       <c r="G637" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H637" s="2">
         <v>595000</v>
@@ -40111,7 +40078,7 @@
         <v>346</v>
       </c>
       <c r="G638" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H638" s="2">
         <v>436000</v>
@@ -40170,7 +40137,7 @@
         <v>344</v>
       </c>
       <c r="G639" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H639" s="2">
         <v>353000</v>
@@ -40226,7 +40193,7 @@
         <v>341</v>
       </c>
       <c r="G640" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H640" s="2">
         <v>841000</v>
@@ -40294,7 +40261,7 @@
         <v>341</v>
       </c>
       <c r="G641" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H641" s="2">
         <v>521000</v>
@@ -40350,7 +40317,7 @@
         <v>344</v>
       </c>
       <c r="G642" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H642" s="2">
         <v>284000</v>
@@ -40409,7 +40376,7 @@
         <v>342</v>
       </c>
       <c r="G643" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H643" s="2">
         <v>712000</v>
@@ -40465,7 +40432,7 @@
         <v>346</v>
       </c>
       <c r="G644" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H644" s="2">
         <v>489000</v>
@@ -40533,7 +40500,7 @@
         <v>344</v>
       </c>
       <c r="G645" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H645" s="2">
         <v>511000</v>
@@ -40633,7 +40600,7 @@
         <v>344</v>
       </c>
       <c r="G647" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H647" s="2">
         <v>489000</v>
@@ -40669,7 +40636,7 @@
         <v>-27.693430656934304</v>
       </c>
     </row>
-    <row r="648" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>3</v>
       </c>
@@ -40763,7 +40730,7 @@
         <v>345</v>
       </c>
       <c r="G649" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H649" s="2">
         <v>559000</v>
@@ -40837,7 +40804,7 @@
         <v>341</v>
       </c>
       <c r="G650" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H650" s="2">
         <v>491000</v>
@@ -40905,7 +40872,7 @@
         <v>342</v>
       </c>
       <c r="G651" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H651" s="2">
         <v>709000</v>
@@ -40970,7 +40937,7 @@
         <v>344</v>
       </c>
       <c r="G652" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H652" s="2">
         <v>550000</v>
@@ -41026,7 +40993,7 @@
         <v>342</v>
       </c>
       <c r="G653" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H653" s="2">
         <v>471000</v>
@@ -41147,7 +41114,7 @@
         <v>344</v>
       </c>
       <c r="G655" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H655" s="2">
         <v>660000</v>
@@ -41259,7 +41226,7 @@
         <v>341</v>
       </c>
       <c r="G657" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H657" s="2">
         <v>355000</v>
@@ -41377,7 +41344,7 @@
         <v>344</v>
       </c>
       <c r="G659" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H659" s="2">
         <v>464000</v>
@@ -41433,7 +41400,7 @@
         <v>346</v>
       </c>
       <c r="G660" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H660" s="2">
         <v>443000</v>
@@ -41616,7 +41583,7 @@
         <v>346</v>
       </c>
       <c r="G663" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H663" s="2">
         <v>753000</v>
@@ -41672,7 +41639,7 @@
         <v>345</v>
       </c>
       <c r="G664" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H664" s="2">
         <v>569000</v>
@@ -41722,7 +41689,7 @@
         <v>345</v>
       </c>
       <c r="G665" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H665" s="2">
         <v>521000</v>
@@ -41837,7 +41804,7 @@
         <v>344</v>
       </c>
       <c r="G667" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H667" s="2">
         <v>377000</v>
@@ -41887,7 +41854,7 @@
         <v>344</v>
       </c>
       <c r="G668" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H668" s="2">
         <v>749000</v>
@@ -41943,7 +41910,7 @@
         <v>343</v>
       </c>
       <c r="G669" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H669" s="2">
         <v>467000</v>
@@ -42002,7 +41969,7 @@
         <v>344</v>
       </c>
       <c r="G670" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H670" s="2">
         <v>553000</v>
@@ -42052,7 +42019,7 @@
         <v>341</v>
       </c>
       <c r="G671" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H671" s="2">
         <v>318000</v>
@@ -42114,7 +42081,7 @@
         <v>343</v>
       </c>
       <c r="G672" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H672" s="2">
         <v>440000</v>
@@ -42179,7 +42146,7 @@
         <v>344</v>
       </c>
       <c r="G673" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H673" s="2">
         <v>230000</v>
@@ -42235,7 +42202,7 @@
         <v>344</v>
       </c>
       <c r="G674" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H674" s="2">
         <v>253000</v>
@@ -42288,7 +42255,7 @@
         <v>341</v>
       </c>
       <c r="G675" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H675" s="2">
         <v>651000</v>
@@ -42347,7 +42314,7 @@
         <v>346</v>
       </c>
       <c r="G676" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H676" s="2">
         <v>477000</v>
@@ -42465,7 +42432,7 @@
         <v>344</v>
       </c>
       <c r="G678" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H678" s="2">
         <v>387000</v>
@@ -42515,7 +42482,7 @@
         <v>344</v>
       </c>
       <c r="G679" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H679" s="2">
         <v>338000</v>
@@ -42568,7 +42535,7 @@
         <v>341</v>
       </c>
       <c r="G680" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H680" s="2">
         <v>459000</v>
@@ -42630,7 +42597,7 @@
         <v>346</v>
       </c>
       <c r="G681" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H681" s="2">
         <v>514000</v>
@@ -42692,7 +42659,7 @@
         <v>343</v>
       </c>
       <c r="G682" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H682" s="2">
         <v>651000</v>
@@ -42837,7 +42804,7 @@
         <v>344</v>
       </c>
       <c r="G684" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H684" s="2">
         <v>592000</v>
@@ -42896,7 +42863,7 @@
         <v>341</v>
       </c>
       <c r="G685" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H685" s="2">
         <v>635000</v>
@@ -42973,7 +42940,7 @@
         <v>345</v>
       </c>
       <c r="G686" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H686" s="2">
         <v>580000</v>
@@ -43032,7 +42999,7 @@
         <v>346</v>
       </c>
       <c r="G687" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H687" s="2">
         <v>394000</v>
@@ -43100,7 +43067,7 @@
         <v>344</v>
       </c>
       <c r="G688" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H688" s="2">
         <v>392000</v>
@@ -43153,7 +43120,7 @@
         <v>342</v>
       </c>
       <c r="G689" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H689" s="2">
         <v>623000</v>
@@ -43212,7 +43179,7 @@
         <v>342</v>
       </c>
       <c r="G690" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H690" s="2">
         <v>553000</v>
@@ -43277,7 +43244,7 @@
         <v>346</v>
       </c>
       <c r="G691" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H691" s="2">
         <v>440000</v>
@@ -43345,7 +43312,7 @@
         <v>346</v>
       </c>
       <c r="G692" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H692" s="2">
         <v>683000</v>
@@ -43416,7 +43383,7 @@
         <v>342</v>
       </c>
       <c r="G693" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H693" s="2">
         <v>474000</v>
@@ -43478,7 +43445,7 @@
         <v>344</v>
       </c>
       <c r="G694" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H694" s="2">
         <v>447000</v>
@@ -43581,7 +43548,7 @@
         <v>344</v>
       </c>
       <c r="G696" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H696" s="2">
         <v>573000</v>
@@ -43643,7 +43610,7 @@
         <v>342</v>
       </c>
       <c r="G697" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H697" s="2">
         <v>324000</v>
@@ -43705,7 +43672,7 @@
         <v>342</v>
       </c>
       <c r="G698" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H698" s="2">
         <v>430000</v>
@@ -43767,7 +43734,7 @@
         <v>346</v>
       </c>
       <c r="G699" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H699" s="2">
         <v>594000</v>
@@ -43832,7 +43799,7 @@
         <v>344</v>
       </c>
       <c r="G700" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H700" s="2">
         <v>460000</v>
@@ -43882,7 +43849,7 @@
         <v>346</v>
       </c>
       <c r="G701" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H701" s="2">
         <v>328000</v>
@@ -43935,7 +43902,7 @@
         <v>343</v>
       </c>
       <c r="G702" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H702" s="2">
         <v>490000</v>
@@ -43991,7 +43958,7 @@
         <v>341</v>
       </c>
       <c r="G703" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H703" s="2">
         <v>379000</v>
@@ -44050,7 +44017,7 @@
         <v>344</v>
       </c>
       <c r="G704" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H704" s="2">
         <v>397000</v>
@@ -44112,7 +44079,7 @@
         <v>341</v>
       </c>
       <c r="G705" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H705" s="2">
         <v>525000</v>
@@ -44174,7 +44141,7 @@
         <v>341</v>
       </c>
       <c r="G706" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H706" s="2">
         <v>514000</v>
@@ -44304,7 +44271,7 @@
         <v>344</v>
       </c>
       <c r="G708" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H708" s="2">
         <v>231000</v>
@@ -44357,7 +44324,7 @@
         <v>345</v>
       </c>
       <c r="G709" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H709" s="2">
         <v>324000</v>
@@ -44404,7 +44371,7 @@
         <v>341</v>
       </c>
       <c r="G710" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H710" s="2">
         <v>385000</v>
@@ -44466,7 +44433,7 @@
         <v>341</v>
       </c>
       <c r="G711" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H711" s="2">
         <v>607000</v>
@@ -44519,7 +44486,7 @@
         <v>344</v>
       </c>
       <c r="G712" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H712" s="2">
         <v>230000</v>
@@ -44563,7 +44530,7 @@
         <v>344</v>
       </c>
       <c r="G713" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H713" s="2">
         <v>386000</v>
@@ -44613,7 +44580,7 @@
         <v>345</v>
       </c>
       <c r="G714" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H714" s="2">
         <v>339000</v>
@@ -44663,7 +44630,7 @@
         <v>345</v>
       </c>
       <c r="G715" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H715" s="2">
         <v>535000</v>
@@ -44734,7 +44701,7 @@
         <v>341</v>
       </c>
       <c r="G716" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H716" s="2">
         <v>539000</v>
@@ -44799,7 +44766,7 @@
         <v>344</v>
       </c>
       <c r="G717" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H717" s="2">
         <v>533000</v>
@@ -44861,7 +44828,7 @@
         <v>346</v>
       </c>
       <c r="G718" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H718" s="2">
         <v>703000</v>
@@ -44909,7 +44876,7 @@
         <v>6.1861313868613124</v>
       </c>
     </row>
-    <row r="719" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>3</v>
       </c>
@@ -44926,7 +44893,7 @@
         <v>344</v>
       </c>
       <c r="G719" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H719" s="2">
         <v>482000</v>
@@ -44988,7 +44955,7 @@
         <v>344</v>
       </c>
       <c r="G720" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H720" s="2">
         <v>692000</v>
@@ -45047,7 +45014,7 @@
         <v>346</v>
       </c>
       <c r="G721" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H721" s="2">
         <v>709000</v>
@@ -45118,7 +45085,7 @@
         <v>345</v>
       </c>
       <c r="G722" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H722" s="2">
         <v>541000</v>
@@ -45180,7 +45147,7 @@
         <v>343</v>
       </c>
       <c r="G723" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H723" s="2">
         <v>401000</v>
@@ -45245,7 +45212,7 @@
         <v>344</v>
       </c>
       <c r="G724" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H724" s="2">
         <v>524000</v>
@@ -45304,7 +45271,7 @@
         <v>344</v>
       </c>
       <c r="G725" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H725" s="2">
         <v>443000</v>
@@ -45366,7 +45333,7 @@
         <v>342</v>
       </c>
       <c r="G726" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H726" s="2">
         <v>595000</v>
@@ -45428,7 +45395,7 @@
         <v>344</v>
       </c>
       <c r="G727" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H727" s="2">
         <v>431000</v>
@@ -45481,7 +45448,7 @@
         <v>346</v>
       </c>
       <c r="G728" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H728" s="2">
         <v>459000</v>
@@ -45549,7 +45516,7 @@
         <v>344</v>
       </c>
       <c r="G729" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H729" s="2">
         <v>496000</v>
@@ -45605,7 +45572,7 @@
         <v>341</v>
       </c>
       <c r="G730" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H730" s="2">
         <v>435000</v>
@@ -45661,7 +45628,7 @@
         <v>344</v>
       </c>
       <c r="G731" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H731" s="2">
         <v>579000</v>
@@ -45717,7 +45684,7 @@
         <v>342</v>
       </c>
       <c r="G732" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H732" s="2">
         <v>586000</v>
@@ -45832,7 +45799,7 @@
         <v>341</v>
       </c>
       <c r="G734" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H734" s="2">
         <v>377000</v>
@@ -45897,7 +45864,7 @@
         <v>342</v>
       </c>
       <c r="G735" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H735" s="2">
         <v>572000</v>
@@ -45956,7 +45923,7 @@
         <v>341</v>
       </c>
       <c r="G736" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H736" s="2">
         <v>543000</v>
@@ -46027,7 +45994,7 @@
         <v>344</v>
       </c>
       <c r="G737" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H737" s="2">
         <v>500000</v>
@@ -46083,7 +46050,7 @@
         <v>343</v>
       </c>
       <c r="G738" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H738" s="2">
         <v>633000</v>
@@ -46145,7 +46112,7 @@
         <v>341</v>
       </c>
       <c r="G739" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H739" s="2">
         <v>392000</v>
@@ -46266,7 +46233,7 @@
         <v>344</v>
       </c>
       <c r="G741" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H741" s="2">
         <v>439000</v>
@@ -46319,7 +46286,7 @@
         <v>344</v>
       </c>
       <c r="G742" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H742" s="2">
         <v>489000</v>
@@ -46369,7 +46336,7 @@
         <v>343</v>
       </c>
       <c r="G743" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H743" s="2">
         <v>362000</v>
@@ -46425,7 +46392,7 @@
         <v>341</v>
       </c>
       <c r="G744" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H744" s="2">
         <v>293000</v>
@@ -46481,7 +46448,7 @@
         <v>346</v>
       </c>
       <c r="G745" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H745" s="2">
         <v>591000</v>
@@ -46542,9 +46509,6 @@
       <c r="F746" t="s">
         <v>342</v>
       </c>
-      <c r="G746" t="s">
-        <v>341</v>
-      </c>
       <c r="H746" s="2">
         <v>417000</v>
       </c>
@@ -46596,7 +46560,7 @@
         <v>346</v>
       </c>
       <c r="G747" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H747" s="2">
         <v>619000</v>
@@ -46646,7 +46610,7 @@
         <v>346</v>
       </c>
       <c r="G748" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H748" s="2">
         <v>689000</v>
@@ -46723,7 +46687,7 @@
         <v>344</v>
       </c>
       <c r="G749" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H749" s="2">
         <v>553000</v>
@@ -46838,7 +46802,7 @@
         <v>341</v>
       </c>
       <c r="G751" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H751" s="2">
         <v>788000</v>
@@ -46906,7 +46870,7 @@
         <v>344</v>
       </c>
       <c r="G752" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H752" s="2">
         <v>550000</v>
@@ -46962,7 +46926,7 @@
         <v>346</v>
       </c>
       <c r="G753" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H753" s="2">
         <v>608000</v>
@@ -47113,7 +47077,7 @@
         <v>343</v>
       </c>
       <c r="G755" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H755" s="2">
         <v>424000</v>
@@ -47243,7 +47207,7 @@
         <v>342</v>
       </c>
       <c r="G757" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H757" s="2">
         <v>593000</v>
@@ -47308,7 +47272,7 @@
         <v>346</v>
       </c>
       <c r="G758" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H758" s="2">
         <v>610000</v>
@@ -47379,7 +47343,7 @@
         <v>342</v>
       </c>
       <c r="G759" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H759" s="2">
         <v>555000</v>
@@ -47438,7 +47402,7 @@
         <v>343</v>
       </c>
       <c r="G760" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H760" s="2">
         <v>402000</v>
@@ -47503,7 +47467,7 @@
         <v>344</v>
       </c>
       <c r="G761" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H761" s="2">
         <v>454000</v>
@@ -47562,7 +47526,7 @@
         <v>346</v>
       </c>
       <c r="G762" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H762" s="2">
         <v>703000</v>
@@ -47627,7 +47591,7 @@
         <v>345</v>
       </c>
       <c r="G763" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H763" s="2">
         <v>442000</v>
@@ -47692,7 +47656,7 @@
         <v>343</v>
       </c>
       <c r="G764" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H764" s="2">
         <v>505000</v>
@@ -47810,7 +47774,7 @@
         <v>344</v>
       </c>
       <c r="G766" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H766" s="2">
         <v>581000</v>
@@ -47863,7 +47827,7 @@
         <v>342</v>
       </c>
       <c r="G767" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H767" s="2">
         <v>546000</v>
@@ -47919,7 +47883,7 @@
         <v>341</v>
       </c>
       <c r="G768" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H768" s="2">
         <v>638000</v>
@@ -47981,7 +47945,7 @@
         <v>345</v>
       </c>
       <c r="G769" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H769" s="2">
         <v>248000</v>
@@ -48031,7 +47995,7 @@
         <v>344</v>
       </c>
       <c r="G770" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H770" s="2">
         <v>413000</v>
@@ -48084,7 +48048,7 @@
         <v>344</v>
       </c>
       <c r="G771" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H771" s="2">
         <v>604000</v>
@@ -48140,7 +48104,7 @@
         <v>344</v>
       </c>
       <c r="G772" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H772" s="2">
         <v>326000</v>
@@ -48202,7 +48166,7 @@
         <v>341</v>
       </c>
       <c r="G773" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H773" s="2">
         <v>367000</v>
@@ -48311,7 +48275,7 @@
         <v>341</v>
       </c>
       <c r="G775" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H775" s="2">
         <v>300000</v>
@@ -48376,7 +48340,7 @@
         <v>342</v>
       </c>
       <c r="G776" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H776" s="2">
         <v>559000</v>
@@ -48541,7 +48505,7 @@
         <v>344</v>
       </c>
       <c r="G779" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H779" s="2">
         <v>435000</v>
@@ -48691,7 +48655,7 @@
         <v>346</v>
       </c>
       <c r="G782" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H782" s="2">
         <v>563000</v>
@@ -48756,7 +48720,7 @@
         <v>342</v>
       </c>
       <c r="G783" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H783" s="2">
         <v>547000</v>
@@ -48815,7 +48779,7 @@
         <v>345</v>
       </c>
       <c r="G784" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H784" s="2">
         <v>763000</v>
@@ -48880,7 +48844,7 @@
         <v>343</v>
       </c>
       <c r="G785" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H785" s="2">
         <v>732000</v>
@@ -48948,7 +48912,7 @@
         <v>346</v>
       </c>
       <c r="G786" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H786" s="2">
         <v>459000</v>
@@ -49024,9 +48988,6 @@
       <c r="F787" t="s">
         <v>341</v>
       </c>
-      <c r="G787" t="s">
-        <v>341</v>
-      </c>
       <c r="H787" s="2">
         <v>564000</v>
       </c>
@@ -49093,7 +49054,7 @@
         <v>341</v>
       </c>
       <c r="G788" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H788" s="2">
         <v>755000</v>
@@ -49164,7 +49125,7 @@
         <v>342</v>
       </c>
       <c r="G789" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H789" s="2">
         <v>661000</v>
@@ -49279,7 +49240,7 @@
         <v>341</v>
       </c>
       <c r="G791" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H791" s="2">
         <v>482000</v>
@@ -49347,7 +49308,7 @@
         <v>342</v>
       </c>
       <c r="G792" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H792" s="2">
         <v>580000</v>
@@ -49406,7 +49367,7 @@
         <v>344</v>
       </c>
       <c r="G793" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H793" s="2">
         <v>518000</v>
@@ -49465,7 +49426,7 @@
         <v>346</v>
       </c>
       <c r="G794" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H794" s="2">
         <v>418000</v>
@@ -49524,7 +49485,7 @@
         <v>342</v>
       </c>
       <c r="G795" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H795" s="2">
         <v>540000</v>
@@ -49636,7 +49597,7 @@
         <v>344</v>
       </c>
       <c r="G797" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H797" s="2">
         <v>548000</v>
@@ -49698,7 +49659,7 @@
         <v>344</v>
       </c>
       <c r="G798" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H798" s="2">
         <v>622000</v>
@@ -49760,7 +49721,7 @@
         <v>341</v>
       </c>
       <c r="G799" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H799" s="2">
         <v>326000</v>
@@ -49819,7 +49780,7 @@
         <v>344</v>
       </c>
       <c r="G800" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H800" s="2">
         <v>344000</v>
@@ -49872,7 +49833,7 @@
         <v>344</v>
       </c>
       <c r="G801" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H801" s="2">
         <v>289000</v>
@@ -49931,7 +49892,7 @@
         <v>345</v>
       </c>
       <c r="G802" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H802" s="2">
         <v>386000</v>
@@ -49984,7 +49945,7 @@
         <v>346</v>
       </c>
       <c r="G803" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H803" s="2">
         <v>443000</v>
@@ -50043,7 +50004,7 @@
         <v>344</v>
       </c>
       <c r="G804" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H804" s="2">
         <v>510000</v>
@@ -50093,7 +50054,7 @@
         <v>344</v>
       </c>
       <c r="G805" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H805" s="2">
         <v>394000</v>
@@ -50146,7 +50107,7 @@
         <v>341</v>
       </c>
       <c r="G806" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H806" s="2">
         <v>424000</v>
@@ -50202,7 +50163,7 @@
         <v>345</v>
       </c>
       <c r="G807" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H807" s="2">
         <v>552000</v>
@@ -50255,7 +50216,7 @@
         <v>344</v>
       </c>
       <c r="G808" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H808" s="2">
         <v>428000</v>
@@ -50308,7 +50269,7 @@
         <v>343</v>
       </c>
       <c r="G809" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H809" s="2">
         <v>623000</v>
@@ -50417,7 +50378,7 @@
         <v>344</v>
       </c>
       <c r="G811" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H811" s="2">
         <v>513000</v>
@@ -50470,7 +50431,7 @@
         <v>342</v>
       </c>
       <c r="G812" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H812" s="2">
         <v>363000</v>
@@ -50523,7 +50484,7 @@
         <v>341</v>
       </c>
       <c r="G813" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H813" s="2">
         <v>506000</v>
@@ -50582,7 +50543,7 @@
         <v>341</v>
       </c>
       <c r="G814" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H814" s="2">
         <v>230000</v>
@@ -50638,7 +50599,7 @@
         <v>343</v>
       </c>
       <c r="G815" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H815" s="2">
         <v>389000</v>
@@ -50676,7 +50637,7 @@
   <autoFilter ref="A1:AP815" xr:uid="{7B1841C9-D21C-2040-9467-2F510B1F6134}">
     <filterColumn colId="1">
       <filters>
-        <filter val="J. Kiraz"/>
+        <filter val="S. Utoikamanu"/>
       </filters>
     </filterColumn>
   </autoFilter>
